--- a/biology/Médecine/Daniel_Mojon/Daniel_Mojon.xlsx
+++ b/biology/Médecine/Daniel_Mojon/Daniel_Mojon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Stéphane Mojon (né à Berne le 29 juillet 1963) est un ophtalmologue suisse. Il est considéré comme le fondateur de la chirurgie mini-invasive du strabisme (CMIS[1]), une chirurgie qui, grâce à de petites incisions dans le muscle oculaire, permet une guérison et une réhabilitation plus rapides, surtout chez les enfants. Daniel Mojon est cofondateur de l'Académie suisse d'ophtalmologie, qui s'est réunie pour la première fois à Lucerne en mars 2017, et est présidant de la Commission de Programme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Stéphane Mojon (né à Berne le 29 juillet 1963) est un ophtalmologue suisse. Il est considéré comme le fondateur de la chirurgie mini-invasive du strabisme (CMIS), une chirurgie qui, grâce à de petites incisions dans le muscle oculaire, permet une guérison et une réhabilitation plus rapides, surtout chez les enfants. Daniel Mojon est cofondateur de l'Académie suisse d'ophtalmologie, qui s'est réunie pour la première fois à Lucerne en mars 2017, et est présidant de la Commission de Programme.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mojon, fils de l'historien de l'art Luc Mojon, a fait des études de médecine à l'Université de Berne et, aux États-Unis, à l'Université Columbia de New York. Il a occupé des postes de direction à la Clinique ophtalmologique de l'Université de Berne et au Département d'ophtalmologie de l'Hôpital cantonal de Saint-Gall. À l'Hôpital Universitaire de Berne (Inselspital), il a été chef du Département de Strabologie et de Neurophtalmologie. Il a dirigé les laboratoires d'oculographie expérimentale du Département d'ophtalmologie de l'Hôpital cantonal de Saint-Gall. En 2000, il a été habilité à diriger des recherches à la Clinique ophtalmologique de l'Université de Berne. Depuis lors, il enseigne à l'Université de Berne, où il est devenu professeur honoraire en 2007. En 2012, il démissionne de son poste officiel et se consacre à la recherche et la pratique privée. Mojon est marié à l'économiste de la santé Stefania Mojon-Azzi.
 </t>
@@ -542,11 +556,13 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les aspects psychosociaux de la strabologie sont au cœur de ses recherches scientifiques. Mojon a démontré dans plusieurs études à quel point les patients atteints de strabisme sont désavantagés et stigmatisés dans la vie quotidienne[2],[3].
-De plus, Mojon a développé une forme mini-invasive de chirurgie du strabisme (CMIS) dans laquelle, contrairement à la technique classique selon Harms ou à l'incision au fornix selon Parks, la conjonctive n'est ouverte que par de très petites incisions, de l'ordre de quelques millimètres[4]. Dix ans après son introduction, la sécurité de cette méthode et la réhabilitation plus rapide après une telle opération ont été largement reconnues ; cette technique est cependant pour un chirurgien plus difficile à maîtriser et à pratiquer que la technique chirurgicale traditionnelle du strabisme[5]. 
-Le glaucome est un autre axe de recherche de Mojon. En collaboration avec son groupe de recherche, il a démontré, entre autres, le lien étroit entre le syndrome de l'apnée obstructive du sommeil (SAOS) et cette maladie fréquente des yeux[6],[7]. En 2016, Daniel Mojon a fondé avec d'autres ophtalmologistes suisses (entre autres, le Dr. Dietmar Thumm, le Dr. Albert Franceschetti et le PD Carl Herbort) l’Académie suisse d’ophtalmologie. L'objectif de la Fondation est de promouvoir activement l'assurance qualité, la recherche et la formation continue dans la pratique ophtalmologique. En septembre 2018, Mojon a été le premier ophtalmologiste suisse à donner une lectio magistralis au congrès de la Deutsche Ophthalmologische Gesellschaft (DOG) sur la chirurgie oculaire mini-invasive[8]. En avril 2019, l’Université de Toronto a invité Daniel Mojon à donner une leçon d’honneur à l’occasion du Jack Crawford Day [9] en reconnaissance de ses contributions novatrices dans le domaine de l’ophtalmologie chirurgicale et, notamment, l’invention de la CMIS. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aspects psychosociaux de la strabologie sont au cœur de ses recherches scientifiques. Mojon a démontré dans plusieurs études à quel point les patients atteints de strabisme sont désavantagés et stigmatisés dans la vie quotidienne,.
+De plus, Mojon a développé une forme mini-invasive de chirurgie du strabisme (CMIS) dans laquelle, contrairement à la technique classique selon Harms ou à l'incision au fornix selon Parks, la conjonctive n'est ouverte que par de très petites incisions, de l'ordre de quelques millimètres. Dix ans après son introduction, la sécurité de cette méthode et la réhabilitation plus rapide après une telle opération ont été largement reconnues ; cette technique est cependant pour un chirurgien plus difficile à maîtriser et à pratiquer que la technique chirurgicale traditionnelle du strabisme. 
+Le glaucome est un autre axe de recherche de Mojon. En collaboration avec son groupe de recherche, il a démontré, entre autres, le lien étroit entre le syndrome de l'apnée obstructive du sommeil (SAOS) et cette maladie fréquente des yeux,. En 2016, Daniel Mojon a fondé avec d'autres ophtalmologistes suisses (entre autres, le Dr. Dietmar Thumm, le Dr. Albert Franceschetti et le PD Carl Herbort) l’Académie suisse d’ophtalmologie. L'objectif de la Fondation est de promouvoir activement l'assurance qualité, la recherche et la formation continue dans la pratique ophtalmologique. En septembre 2018, Mojon a été le premier ophtalmologiste suisse à donner une lectio magistralis au congrès de la Deutsche Ophthalmologische Gesellschaft (DOG) sur la chirurgie oculaire mini-invasive. En avril 2019, l’Université de Toronto a invité Daniel Mojon à donner une leçon d’honneur à l’occasion du Jack Crawford Day  en reconnaissance de ses contributions novatrices dans le domaine de l’ophtalmologie chirurgicale et, notamment, l’invention de la CMIS. 
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Articles (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ronald D. Gerste: Daniel Mojon – Pionier der Minimally Invasive Strabismus Surgery (MISS): "Schielen ist auch ein Stigma". Schweizerische Ärztezeitung (2019); 100(9), S. 317–318.
 Daniel Mojon, Howard Fine (Hrsg.): Minimally invasive ophthalmic surgery. Springer, Berlin 2010,  (ISBN 978-3-642-02601-0).
